--- a/book.xlsx
+++ b/book.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yutaka\Desktop\Flash_Cards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miroc\FlashCards\Flash_Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A65641-1E11-4090-A8BD-40462E4D4A3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1726A9E2-DF2E-4A4B-A415-2C5BF2B4128F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{77373029-EA19-3040-86B1-92EFA1594428}"/>
+    <workbookView xWindow="4035" yWindow="615" windowWidth="14385" windowHeight="11985" activeTab="3" xr2:uid="{77373029-EA19-3040-86B1-92EFA1594428}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="472">
   <si>
     <t>underlay</t>
     <phoneticPr fontId="1"/>
@@ -2754,7 +2755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC3BDC6-33F4-1F49-9243-E5204AD50FCE}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A95" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3584,7 +3585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE76FA6-050A-5945-8A1C-B9FDBD8EDEEC}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4412,8 +4413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0FF6CE-CF89-FA4A-9E3E-D08E57CF364B}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -4714,4 +4715,92 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091618A3-A297-4EFA-8E3F-3A2797E2E2AB}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/book.xlsx
+++ b/book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miroc\FlashCards\Flash_Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1726A9E2-DF2E-4A4B-A415-2C5BF2B4128F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44CE915-2091-4725-945C-08B6F26CAA65}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4035" yWindow="615" windowWidth="14385" windowHeight="11985" activeTab="3" xr2:uid="{77373029-EA19-3040-86B1-92EFA1594428}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="496">
   <si>
     <t>underlay</t>
     <phoneticPr fontId="1"/>
@@ -2389,6 +2389,171 @@
   </si>
   <si>
     <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>diligent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤勉な、熱心な</t>
+    <rPh sb="0" eb="2">
+      <t>キンベン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ネッシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大まかな、粗野な</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pasture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牧草(地)</t>
+    <rPh sb="0" eb="2">
+      <t>ボクソウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>temporary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>臨時の、仮の</t>
+    <rPh sb="0" eb="2">
+      <t>リンジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stroke</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打つこと、[心臓の]鼓動、脳卒中</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シンゾウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コドウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ノウソッチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦術</t>
+    <rPh sb="0" eb="2">
+      <t>センジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disturb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>邪魔をする、妨げる</t>
+    <rPh sb="0" eb="2">
+      <t>ジャマ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サマタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>incidental</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付随的な、偶発的な</t>
+    <rPh sb="0" eb="3">
+      <t>フズイテキ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>グウハツテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eternal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永遠の</t>
+    <rPh sb="0" eb="2">
+      <t>エイエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nearly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほとんど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>profession</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[専門的]職業</t>
+    <rPh sb="1" eb="4">
+      <t>センモンテキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disorder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>混乱、無秩序、病気</t>
+    <rPh sb="0" eb="2">
+      <t>コンラン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ムチツジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ビョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tactic</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4719,10 +4884,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091618A3-A297-4EFA-8E3F-3A2797E2E2AB}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -4737,66 +4902,98 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>400</v>
+        <v>472</v>
       </c>
       <c r="B2" t="s">
-        <v>401</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>402</v>
+        <v>474</v>
       </c>
       <c r="B3" t="s">
-        <v>403</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>404</v>
+        <v>476</v>
       </c>
       <c r="B4" t="s">
-        <v>405</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>406</v>
+        <v>478</v>
       </c>
       <c r="B5" t="s">
-        <v>407</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>480</v>
       </c>
       <c r="B6" t="s">
-        <v>409</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>410</v>
+        <v>495</v>
       </c>
       <c r="B7" t="s">
-        <v>411</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>412</v>
+        <v>493</v>
       </c>
       <c r="B8" t="s">
-        <v>413</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>414</v>
+        <v>483</v>
       </c>
       <c r="B9" t="s">
-        <v>415</v>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>485</v>
+      </c>
+      <c r="B10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>489</v>
+      </c>
+      <c r="B12" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>491</v>
+      </c>
+      <c r="B13" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/book.xlsx
+++ b/book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miroc\FlashCards\Flash_Cards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/home2/1693120s/Desktop/Flash_Cards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44CE915-2091-4725-945C-08B6F26CAA65}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F170753C-0A9C-A546-A277-F7665254C9D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="615" windowWidth="14385" windowHeight="11985" activeTab="3" xr2:uid="{77373029-EA19-3040-86B1-92EFA1594428}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{77373029-EA19-3040-86B1-92EFA1594428}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="751">
   <si>
     <t>underlay</t>
     <phoneticPr fontId="1"/>
@@ -2079,10 +2079,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>aristocray</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>貴族</t>
     <rPh sb="0" eb="2">
       <t>キゾク</t>
@@ -2215,10 +2211,6 @@
   </si>
   <si>
     <t>謙虚な</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>susuceptible</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2332,10 +2324,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>acclain</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>称賛する、喝采する</t>
     <rPh sb="0" eb="2">
       <t>、</t>
@@ -2365,10 +2353,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>redudant</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>冗長な、余分の</t>
     <rPh sb="0" eb="2">
       <t>、</t>
@@ -2392,176 +2376,1413 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>diligent</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤勉な、熱心な</t>
-    <rPh sb="0" eb="2">
-      <t>キンベン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ネッシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>crude</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大まかな、粗野な</t>
-    <rPh sb="0" eb="1">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ソヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pasture</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>牧草(地)</t>
-    <rPh sb="0" eb="2">
-      <t>ボクソウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>temporary</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>臨時の、仮の</t>
-    <rPh sb="0" eb="2">
-      <t>リンジ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>stroke</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>打つこと、[心臓の]鼓動、脳卒中</t>
-    <rPh sb="0" eb="1">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シンゾウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コドウ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ノウソッチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>戦術</t>
-    <rPh sb="0" eb="2">
-      <t>センジュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>disturb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>邪魔をする、妨げる</t>
-    <rPh sb="0" eb="2">
-      <t>ジャマ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>サマタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>incidental</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>付随的な、偶発的な</t>
+    <t>caterpillar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毛虫</t>
+    <rPh sb="0" eb="2">
+      <t>ケムシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sibling</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きょうだい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>engrave</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刻む</t>
+    <rPh sb="0" eb="1">
+      <t>キザム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>venom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悪意、毒液</t>
+    <rPh sb="0" eb="2">
+      <t>アクイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>venture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>危険を冒して進む、冒険的企て、投機</t>
+    <rPh sb="0" eb="1">
+      <t>オカシテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>seabed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海底</t>
+    <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>discern</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見つける、識別する</t>
+    <rPh sb="0" eb="1">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dispute</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>議論する、異議を唱える</t>
+    <rPh sb="0" eb="2">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accumulate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ためる、貯蓄する</t>
+    <rPh sb="0" eb="2">
+      <t>チョチクスル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bitterly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひどく、激しく</t>
+    <rPh sb="0" eb="1">
+      <t>ハゲシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飛行している、空気で運ばれる</t>
+    <rPh sb="0" eb="2">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fashion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作り出す、方法</t>
+    <rPh sb="0" eb="1">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tectonic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地殻運動による、構造の</t>
+    <rPh sb="0" eb="2">
+      <t>チカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選ぶ</t>
+    <rPh sb="0" eb="1">
+      <t>エラブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insulate</t>
+  </si>
+  <si>
+    <t>mediocre</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二流の</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bargain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取り決め、取引</t>
+    <rPh sb="0" eb="1">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防護する、隔離する</t>
+    <rPh sb="0" eb="2">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弓</t>
+    <rPh sb="0" eb="1">
+      <t>ユミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉱石</t>
+    <rPh sb="0" eb="2">
+      <t>コウセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>政権、政治体制</t>
+    <rPh sb="0" eb="2">
+      <t>セイケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>perimeter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周囲の長さ、周辺地域</t>
+    <rPh sb="0" eb="2">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先頭に立つ、先頭</t>
+    <rPh sb="0" eb="2">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分泌する、隠す</t>
+    <rPh sb="0" eb="2">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>underneath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>の下に、正面かに</t>
+    <rPh sb="0" eb="1">
+      <t>ノシタニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clarify</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明らかにする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wholesaler</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卸売業者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gravel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>砂利、小石</t>
+    <rPh sb="0" eb="2">
+      <t>ジャリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肉食動物、食虫植物</t>
+    <rPh sb="0" eb="4">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>outperform</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性能が優れる</t>
+    <rPh sb="0" eb="1">
+      <t>スグレル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>advocate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>推奨する、支持する</t>
+    <rPh sb="0" eb="2">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aviation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>航空学、飛行</t>
     <rPh sb="0" eb="3">
-      <t>フズイテキ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>グウハツテキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eternal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>永遠の</t>
-    <rPh sb="0" eb="2">
-      <t>エイエン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nearly</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ほとんど</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>profession</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[専門的]職業</t>
-    <rPh sb="1" eb="4">
-      <t>センモンテキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショクギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>disorder</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>混乱、無秩序、病気</t>
-    <rPh sb="0" eb="2">
-      <t>コンラン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ムチツジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ビョウキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tactic</t>
-    <phoneticPr fontId="1"/>
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>province</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>州、分野</t>
+    <rPh sb="0" eb="1">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>する傾向がある</t>
+    <rPh sb="0" eb="2">
+      <t>ケイコウガアル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delegate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>委任する、代表者</t>
+    <rPh sb="0" eb="2">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>extraneous</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無関係な、外部の、異質の</t>
+    <rPh sb="0" eb="3">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>administer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運営する、管理する</t>
+    <rPh sb="0" eb="2">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>upscale</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高級な</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>theatrical</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演劇の、劇場の</t>
+    <rPh sb="0" eb="2">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>elevation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標高、小高いところ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>keen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鋭い</t>
+    <rPh sb="0" eb="1">
+      <t>スルドイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>破片、一片</t>
+    <rPh sb="0" eb="2">
+      <t>ハヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>encroach</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>侵害する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boast</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自慢する、自慢話</t>
+    <rPh sb="0" eb="2">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bark</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>樹皮</t>
+    <rPh sb="0" eb="2">
+      <t>ジュヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pragmatic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実用的な</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eligible</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資格のある、適格な</t>
+    <rPh sb="0" eb="2">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>censure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非難する、非難</t>
+    <rPh sb="0" eb="2">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excavate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発掘する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cliché</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言い古された考え方、陳腐な決まり文句</t>
+    <rPh sb="0" eb="1">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>upright</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公平な、直立の</t>
+    <rPh sb="0" eb="2">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>elaborate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複雑な、精巧な</t>
+    <rPh sb="0" eb="2">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>salinity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塩分濃度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plague</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伝染病、大発生</t>
+    <rPh sb="0" eb="3">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>preoccupied</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>没頭して、夢中になって</t>
+    <rPh sb="0" eb="2">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deplore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非難する、嘆き悲しむ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒナンスル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pane</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>窓ガラス、窓枠</t>
+    <rPh sb="0" eb="1">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sarcastic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>皮肉な、辛辣な</t>
+    <rPh sb="0" eb="2">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vacate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明け渡す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obsolete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時代遅れの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tenfold</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10倍に</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>congregate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集まる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deride</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あざ笑う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>relish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楽しむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>崇拝する、尊敬する</t>
+    <rPh sb="0" eb="2">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>paleontologist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古生物学者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deviate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逸脱する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>quota</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割り当て、輸出入規定数量</t>
+    <rPh sb="0" eb="1">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coagulate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>凝固する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>equivocal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曖昧な、両方の意味に取れる</t>
+    <rPh sb="0" eb="2">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shrub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低木</t>
+    <rPh sb="0" eb="2">
+      <t>テイボク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>垂れ下がる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prune</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刈り取る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recess</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>窪み、休み</t>
+    <rPh sb="0" eb="1">
+      <t>クボミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>devoid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠いている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>undermine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弱体化させる、土台を壊す</t>
+    <rPh sb="0" eb="3">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prairie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大草原、牧草地</t>
+    <rPh sb="0" eb="3">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Paleolithic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧石器時代の、旧石器時代</t>
+    <rPh sb="0" eb="5">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dehydrate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脱水状態になる、乾燥する</t>
+    <rPh sb="0" eb="4">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>theology</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進学</t>
+    <rPh sb="0" eb="2">
+      <t>シンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>render</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>する、与える</t>
+    <rPh sb="0" eb="1">
+      <t>アタエル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>outcompete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打ち負かす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detrimental</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有害な</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>requisition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接収する、徴用する</t>
+    <rPh sb="0" eb="2">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落胆した</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有害な</t>
+    <rPh sb="0" eb="1">
+      <t>ユウガイナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無数の</t>
+    <rPh sb="0" eb="2">
+      <t>」</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分派</t>
+    <rPh sb="0" eb="2">
+      <t>ブンハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>surpass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>超える</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>outwit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裏を書く</t>
+    <rPh sb="0" eb="1">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>multitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大衆</t>
+    <rPh sb="0" eb="1">
+      <t>タイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>twig</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小枝</t>
+    <rPh sb="0" eb="2">
+      <t>コエダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>convene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集める、会を開く</t>
+    <rPh sb="0" eb="1">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hider</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妨げる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prohibitive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひどく高い、禁止する</t>
+    <rPh sb="0" eb="2">
+      <t>キンシスル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>compelling</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説得力のある、強制的な</t>
+    <rPh sb="0" eb="3">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fanciful</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非現実的な、架空の</t>
+    <rPh sb="0" eb="4">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emigrant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外国への移民</t>
+    <rPh sb="0" eb="2">
+      <t>イミン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>salinization</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塩類化</t>
+    <rPh sb="0" eb="2">
+      <t>エンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flourish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栄える</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目立った、明らかな</t>
+    <rPh sb="0" eb="2">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hydroponics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水栽培</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陸生の</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rattle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガラガラ（おもちゃ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>朗読する、物語る</t>
+    <rPh sb="0" eb="2">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rigorously</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>厳密に</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>heterogeneous</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑多な、不均一な、異質の</t>
+    <rPh sb="0" eb="2">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>compliment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>褒める、褒め言葉</t>
+    <rPh sb="0" eb="1">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nasal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鼻にかかった</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sewer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下水道</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>forgo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>控える、諦める</t>
+    <rPh sb="0" eb="1">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>milestone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画期的な出来事</t>
+    <rPh sb="0" eb="3">
+      <t>デキゴト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>revitalize</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>活性化する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meditate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熟考する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>artisan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職人</t>
+    <rPh sb="0" eb="2">
+      <t>ショクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exert</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用いる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物語る、数え直す</t>
+    <rPh sb="0" eb="2">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抑える</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disintegration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>崩壊</t>
+    <rPh sb="0" eb="2">
+      <t>ホウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tract</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広がり、菅</t>
+    <rPh sb="0" eb="1">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>induce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人に勧めて　させる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Neolithic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新石器時代の</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drawback</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠点</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>propulsion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>推進力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>substantiate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実証する、具体化する</t>
+    <rPh sb="0" eb="2">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cavity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>穴、空洞、虫歯</t>
+    <rPh sb="0" eb="1">
+      <t>アナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>squirrel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contend with</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>に取り組む</t>
+    <rPh sb="0" eb="1">
+      <t>トリクム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be comprised of</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>からなっている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accustomed to</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>に慣れて</t>
+    <rPh sb="0" eb="1">
+      <t>ニナレテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ascribe A to B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aの原因をBと考える</t>
+    <rPh sb="0" eb="1">
+      <t>カンガエル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>leave off</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やめる、着るのをやめる</t>
+    <rPh sb="0" eb="1">
+      <t>キルノヲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be credited with</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>の功績があると思われている、高い評価を得る</t>
+    <rPh sb="0" eb="1">
+      <t>コウセキガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>in concert with</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>と協力して、と一致して</t>
+    <rPh sb="0" eb="1">
+      <t>キョウリョクシテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>in line with</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>と一致して</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">in return for </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のお返しに</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>well-to-do</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裕福な</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>to a greater or lesser extent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>程度の差はあるが</t>
+    <rPh sb="0" eb="1">
+      <t>サハアルガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tell … apart </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区別する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>put forward</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>推薦する、提案する</t>
+    <rPh sb="0" eb="1">
+      <t>スイセンスル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">be traced to </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>に端を発する</t>
+    <rPh sb="0" eb="1">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aristocracy</t>
+  </si>
+  <si>
+    <t>susceptible</t>
+  </si>
+  <si>
+    <t>acclaim</t>
+  </si>
+  <si>
+    <t>redundant</t>
+  </si>
+  <si>
+    <t>airborne</t>
+  </si>
+  <si>
+    <t>Spreadhead</t>
+  </si>
+  <si>
+    <t>secrete</t>
+  </si>
+  <si>
+    <t>carnivore</t>
+  </si>
+  <si>
+    <t>venerate</t>
+  </si>
+  <si>
+    <t>despondent</t>
+  </si>
+  <si>
+    <t>zillion</t>
+  </si>
+  <si>
+    <t>offshoot</t>
+  </si>
+  <si>
+    <t>conspicuous</t>
+  </si>
+  <si>
+    <t>terrestrial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2924,22 +4145,22 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2947,7 +4168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2955,7 +4176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2963,7 +4184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2971,7 +4192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2979,7 +4200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2987,7 +4208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2995,7 +4216,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3003,7 +4224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3011,7 +4232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3019,7 +4240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3027,7 +4248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3035,7 +4256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>193</v>
       </c>
@@ -3043,7 +4264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -3051,7 +4272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -3059,7 +4280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -3067,7 +4288,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -3075,7 +4296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -3083,7 +4304,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -3091,7 +4312,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -3099,7 +4320,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>194</v>
       </c>
@@ -3107,7 +4328,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -3115,7 +4336,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -3123,7 +4344,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -3131,7 +4352,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -3139,7 +4360,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -3147,7 +4368,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -3155,7 +4376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -3163,7 +4384,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -3171,7 +4392,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -3179,7 +4400,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -3187,7 +4408,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -3195,7 +4416,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -3203,7 +4424,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -3211,7 +4432,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -3219,7 +4440,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -3227,7 +4448,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -3235,7 +4456,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -3243,7 +4464,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -3251,7 +4472,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -3259,7 +4480,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -3267,7 +4488,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -3275,7 +4496,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -3283,7 +4504,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -3291,7 +4512,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -3299,7 +4520,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -3307,7 +4528,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -3315,7 +4536,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -3323,7 +4544,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -3331,7 +4552,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -3339,7 +4560,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -3347,7 +4568,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>99</v>
       </c>
@@ -3355,7 +4576,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>101</v>
       </c>
@@ -3363,7 +4584,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -3371,7 +4592,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>105</v>
       </c>
@@ -3379,7 +4600,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>107</v>
       </c>
@@ -3387,7 +4608,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>109</v>
       </c>
@@ -3395,7 +4616,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>111</v>
       </c>
@@ -3403,7 +4624,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>113</v>
       </c>
@@ -3411,7 +4632,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>115</v>
       </c>
@@ -3419,7 +4640,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>117</v>
       </c>
@@ -3427,7 +4648,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -3435,7 +4656,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>121</v>
       </c>
@@ -3443,7 +4664,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>123</v>
       </c>
@@ -3451,7 +4672,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>125</v>
       </c>
@@ -3459,7 +4680,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>127</v>
       </c>
@@ -3467,7 +4688,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>195</v>
       </c>
@@ -3475,7 +4696,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>130</v>
       </c>
@@ -3483,7 +4704,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>132</v>
       </c>
@@ -3491,7 +4712,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>134</v>
       </c>
@@ -3499,7 +4720,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>136</v>
       </c>
@@ -3507,7 +4728,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>138</v>
       </c>
@@ -3515,7 +4736,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>140</v>
       </c>
@@ -3523,7 +4744,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>142</v>
       </c>
@@ -3531,7 +4752,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>144</v>
       </c>
@@ -3539,7 +4760,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>146</v>
       </c>
@@ -3547,7 +4768,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>148</v>
       </c>
@@ -3555,7 +4776,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>150</v>
       </c>
@@ -3563,7 +4784,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>152</v>
       </c>
@@ -3571,7 +4792,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>154</v>
       </c>
@@ -3579,7 +4800,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>156</v>
       </c>
@@ -3587,7 +4808,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>196</v>
       </c>
@@ -3595,7 +4816,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>159</v>
       </c>
@@ -3603,7 +4824,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>161</v>
       </c>
@@ -3611,7 +4832,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>163</v>
       </c>
@@ -3619,7 +4840,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>197</v>
       </c>
@@ -3627,7 +4848,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>166</v>
       </c>
@@ -3635,7 +4856,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>168</v>
       </c>
@@ -3643,7 +4864,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>170</v>
       </c>
@@ -3651,7 +4872,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>172</v>
       </c>
@@ -3659,7 +4880,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>174</v>
       </c>
@@ -3667,7 +4888,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>176</v>
       </c>
@@ -3675,7 +4896,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>178</v>
       </c>
@@ -3683,7 +4904,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>180</v>
       </c>
@@ -3691,7 +4912,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>182</v>
       </c>
@@ -3699,7 +4920,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>184</v>
       </c>
@@ -3707,7 +4928,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>186</v>
       </c>
@@ -3715,7 +4936,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>188</v>
       </c>
@@ -3723,7 +4944,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>198</v>
       </c>
@@ -3731,7 +4952,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>191</v>
       </c>
@@ -3754,21 +4975,21 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -3776,7 +4997,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>202</v>
       </c>
@@ -3784,7 +5005,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -3792,7 +5013,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>206</v>
       </c>
@@ -3800,7 +5021,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -3808,7 +5029,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>210</v>
       </c>
@@ -3816,7 +5037,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>212</v>
       </c>
@@ -3824,7 +5045,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>214</v>
       </c>
@@ -3832,7 +5053,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -3840,7 +5061,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>218</v>
       </c>
@@ -3848,7 +5069,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>220</v>
       </c>
@@ -3856,7 +5077,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>222</v>
       </c>
@@ -3864,7 +5085,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>224</v>
       </c>
@@ -3872,7 +5093,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>226</v>
       </c>
@@ -3880,7 +5101,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>228</v>
       </c>
@@ -3888,7 +5109,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -3896,7 +5117,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>232</v>
       </c>
@@ -3904,7 +5125,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>234</v>
       </c>
@@ -3912,7 +5133,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>236</v>
       </c>
@@ -3920,7 +5141,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>238</v>
       </c>
@@ -3928,7 +5149,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>240</v>
       </c>
@@ -3936,7 +5157,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>242</v>
       </c>
@@ -3944,7 +5165,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>244</v>
       </c>
@@ -3952,7 +5173,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>246</v>
       </c>
@@ -3960,7 +5181,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>248</v>
       </c>
@@ -3968,7 +5189,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>250</v>
       </c>
@@ -3976,7 +5197,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>252</v>
       </c>
@@ -3984,7 +5205,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>254</v>
       </c>
@@ -3992,7 +5213,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>256</v>
       </c>
@@ -4000,7 +5221,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>258</v>
       </c>
@@ -4008,7 +5229,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>260</v>
       </c>
@@ -4016,7 +5237,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>262</v>
       </c>
@@ -4024,7 +5245,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>264</v>
       </c>
@@ -4032,7 +5253,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>266</v>
       </c>
@@ -4040,7 +5261,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>268</v>
       </c>
@@ -4048,7 +5269,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>270</v>
       </c>
@@ -4056,7 +5277,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>272</v>
       </c>
@@ -4064,7 +5285,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>274</v>
       </c>
@@ -4072,7 +5293,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>276</v>
       </c>
@@ -4080,7 +5301,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>278</v>
       </c>
@@ -4088,7 +5309,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>280</v>
       </c>
@@ -4096,7 +5317,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>282</v>
       </c>
@@ -4104,7 +5325,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>284</v>
       </c>
@@ -4112,7 +5333,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>286</v>
       </c>
@@ -4120,7 +5341,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>288</v>
       </c>
@@ -4128,7 +5349,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>290</v>
       </c>
@@ -4136,7 +5357,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>292</v>
       </c>
@@ -4144,7 +5365,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>294</v>
       </c>
@@ -4152,7 +5373,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>296</v>
       </c>
@@ -4160,7 +5381,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>298</v>
       </c>
@@ -4168,7 +5389,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>300</v>
       </c>
@@ -4176,7 +5397,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>302</v>
       </c>
@@ -4184,7 +5405,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>304</v>
       </c>
@@ -4192,7 +5413,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>306</v>
       </c>
@@ -4200,7 +5421,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>308</v>
       </c>
@@ -4208,7 +5429,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>310</v>
       </c>
@@ -4216,7 +5437,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>312</v>
       </c>
@@ -4224,7 +5445,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>314</v>
       </c>
@@ -4232,7 +5453,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>316</v>
       </c>
@@ -4240,7 +5461,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>318</v>
       </c>
@@ -4248,7 +5469,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>320</v>
       </c>
@@ -4256,7 +5477,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>322</v>
       </c>
@@ -4264,7 +5485,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>324</v>
       </c>
@@ -4272,7 +5493,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>326</v>
       </c>
@@ -4280,7 +5501,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>328</v>
       </c>
@@ -4288,7 +5509,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>330</v>
       </c>
@@ -4296,7 +5517,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>332</v>
       </c>
@@ -4304,7 +5525,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>334</v>
       </c>
@@ -4312,7 +5533,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>336</v>
       </c>
@@ -4320,7 +5541,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>338</v>
       </c>
@@ -4328,7 +5549,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>340</v>
       </c>
@@ -4336,7 +5557,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>342</v>
       </c>
@@ -4344,7 +5565,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>344</v>
       </c>
@@ -4352,7 +5573,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>346</v>
       </c>
@@ -4360,7 +5581,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>348</v>
       </c>
@@ -4368,7 +5589,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>350</v>
       </c>
@@ -4376,7 +5597,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>352</v>
       </c>
@@ -4384,7 +5605,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>354</v>
       </c>
@@ -4392,7 +5613,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>356</v>
       </c>
@@ -4400,7 +5621,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>358</v>
       </c>
@@ -4408,7 +5629,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>360</v>
       </c>
@@ -4416,7 +5637,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>362</v>
       </c>
@@ -4424,7 +5645,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>364</v>
       </c>
@@ -4432,7 +5653,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>365</v>
       </c>
@@ -4440,7 +5661,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>368</v>
       </c>
@@ -4448,7 +5669,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>370</v>
       </c>
@@ -4456,7 +5677,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>372</v>
       </c>
@@ -4464,7 +5685,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>374</v>
       </c>
@@ -4472,7 +5693,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>376</v>
       </c>
@@ -4480,7 +5701,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>378</v>
       </c>
@@ -4488,7 +5709,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>380</v>
       </c>
@@ -4496,7 +5717,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>382</v>
       </c>
@@ -4504,7 +5725,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>384</v>
       </c>
@@ -4512,7 +5733,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>386</v>
       </c>
@@ -4520,7 +5741,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>388</v>
       </c>
@@ -4528,7 +5749,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>390</v>
       </c>
@@ -4536,7 +5757,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>392</v>
       </c>
@@ -4544,7 +5765,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>394</v>
       </c>
@@ -4552,7 +5773,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>396</v>
       </c>
@@ -4560,7 +5781,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>398</v>
       </c>
@@ -4576,27 +5797,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0FF6CE-CF89-FA4A-9E3E-D08E57CF364B}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="A1:B9"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>400</v>
       </c>
@@ -4604,7 +5825,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>402</v>
       </c>
@@ -4612,7 +5833,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>404</v>
       </c>
@@ -4620,7 +5841,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>406</v>
       </c>
@@ -4628,252 +5849,764 @@
         <v>407</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>737</v>
+      </c>
+      <c r="B6" t="s">
         <v>408</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>410</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>412</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>414</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>416</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>418</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>420</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>422</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>424</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>426</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>428</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>430</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>432</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>434</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>738</v>
+      </c>
+      <c r="B20" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>436</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>438</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>440</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>442</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>444</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>446</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>448</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>450</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>452</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>454</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>456</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>739</v>
+      </c>
+      <c r="B32" t="s">
         <v>458</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+      <c r="B33" t="s">
         <v>460</v>
       </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+      <c r="B34" t="s">
         <v>462</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>740</v>
+      </c>
+      <c r="B35" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>464</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>466</v>
-      </c>
-      <c r="B35" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>468</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>469</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>470</v>
+      </c>
+      <c r="B38" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>472</v>
+      </c>
+      <c r="B39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>474</v>
+      </c>
+      <c r="B40" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>476</v>
+      </c>
+      <c r="B41" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>478</v>
+      </c>
+      <c r="B42" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>480</v>
+      </c>
+      <c r="B43" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>482</v>
+      </c>
+      <c r="B44" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>484</v>
+      </c>
+      <c r="B45" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>486</v>
+      </c>
+      <c r="B46" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>741</v>
+      </c>
+      <c r="B47" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>489</v>
+      </c>
+      <c r="B48" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>491</v>
+      </c>
+      <c r="B49" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>493</v>
+      </c>
+      <c r="B50" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>496</v>
+      </c>
+      <c r="B51" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>498</v>
+      </c>
+      <c r="B52" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>495</v>
+      </c>
+      <c r="B53" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>501</v>
+      </c>
+      <c r="B54" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>503</v>
+      </c>
+      <c r="B55" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>505</v>
+      </c>
+      <c r="B56" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>507</v>
+      </c>
+      <c r="B57" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>742</v>
+      </c>
+      <c r="B58" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>743</v>
+      </c>
+      <c r="B59" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>511</v>
+      </c>
+      <c r="B60" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>513</v>
+      </c>
+      <c r="B61" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>515</v>
+      </c>
+      <c r="B62" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>517</v>
+      </c>
+      <c r="B63" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>744</v>
+      </c>
+      <c r="B64" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>520</v>
+      </c>
+      <c r="B65" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>522</v>
+      </c>
+      <c r="B66" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>524</v>
+      </c>
+      <c r="B67" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>526</v>
+      </c>
+      <c r="B68" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>528</v>
+      </c>
+      <c r="B69" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>530</v>
+      </c>
+      <c r="B70" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>532</v>
+      </c>
+      <c r="B71" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>534</v>
+      </c>
+      <c r="B72" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>536</v>
+      </c>
+      <c r="B73" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>538</v>
+      </c>
+      <c r="B74" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>540</v>
+      </c>
+      <c r="B75" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>542</v>
+      </c>
+      <c r="B76" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>544</v>
+      </c>
+      <c r="B77" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>546</v>
+      </c>
+      <c r="B78" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>548</v>
+      </c>
+      <c r="B79" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>550</v>
+      </c>
+      <c r="B80" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>552</v>
+      </c>
+      <c r="B81" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>554</v>
+      </c>
+      <c r="B82" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>556</v>
+      </c>
+      <c r="B83" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>558</v>
+      </c>
+      <c r="B84" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>560</v>
+      </c>
+      <c r="B85" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>562</v>
+      </c>
+      <c r="B86" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>564</v>
+      </c>
+      <c r="B87" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>566</v>
+      </c>
+      <c r="B88" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>568</v>
+      </c>
+      <c r="B89" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>570</v>
+      </c>
+      <c r="B90" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>572</v>
+      </c>
+      <c r="B91" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>574</v>
+      </c>
+      <c r="B92" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>576</v>
+      </c>
+      <c r="B93" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>578</v>
+      </c>
+      <c r="B94" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>580</v>
+      </c>
+      <c r="B95" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>582</v>
+      </c>
+      <c r="B96" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>584</v>
+      </c>
+      <c r="B97" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>586</v>
+      </c>
+      <c r="B98" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>588</v>
+      </c>
+      <c r="B99" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>745</v>
+      </c>
+      <c r="B100" t="s">
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -4884,116 +6617,632 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091618A3-A297-4EFA-8E3F-3A2797E2E2AB}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>472</v>
+        <v>591</v>
       </c>
       <c r="B2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>474</v>
+        <v>593</v>
       </c>
       <c r="B3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>476</v>
+        <v>595</v>
       </c>
       <c r="B4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>478</v>
+        <v>597</v>
       </c>
       <c r="B5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>480</v>
+        <v>599</v>
       </c>
       <c r="B6" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>495</v>
+        <v>601</v>
       </c>
       <c r="B7" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>493</v>
+        <v>603</v>
       </c>
       <c r="B8" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>483</v>
+        <v>605</v>
       </c>
       <c r="B9" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>485</v>
+        <v>607</v>
       </c>
       <c r="B10" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>487</v>
+        <v>609</v>
       </c>
       <c r="B11" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>489</v>
+        <v>611</v>
       </c>
       <c r="B12" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>491</v>
+        <v>613</v>
       </c>
       <c r="B13" t="s">
-        <v>492</v>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>615</v>
+      </c>
+      <c r="B14" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>617</v>
+      </c>
+      <c r="B15" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>619</v>
+      </c>
+      <c r="B16" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>621</v>
+      </c>
+      <c r="B17" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>623</v>
+      </c>
+      <c r="B18" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>625</v>
+      </c>
+      <c r="B19" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>627</v>
+      </c>
+      <c r="B20" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>746</v>
+      </c>
+      <c r="B21" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>625</v>
+      </c>
+      <c r="B22" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>747</v>
+      </c>
+      <c r="B23" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>748</v>
+      </c>
+      <c r="B24" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>633</v>
+      </c>
+      <c r="B25" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>635</v>
+      </c>
+      <c r="B26" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>637</v>
+      </c>
+      <c r="B27" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>639</v>
+      </c>
+      <c r="B28" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>641</v>
+      </c>
+      <c r="B29" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>643</v>
+      </c>
+      <c r="B30" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>645</v>
+      </c>
+      <c r="B31" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>647</v>
+      </c>
+      <c r="B32" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>649</v>
+      </c>
+      <c r="B33" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>651</v>
+      </c>
+      <c r="B34" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>653</v>
+      </c>
+      <c r="B35" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>655</v>
+      </c>
+      <c r="B36" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>749</v>
+      </c>
+      <c r="B37" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>658</v>
+      </c>
+      <c r="B38" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>750</v>
+      </c>
+      <c r="B39" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>661</v>
+      </c>
+      <c r="B40" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>663</v>
+      </c>
+      <c r="B41" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>665</v>
+      </c>
+      <c r="B42" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>667</v>
+      </c>
+      <c r="B43" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>669</v>
+      </c>
+      <c r="B44" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>671</v>
+      </c>
+      <c r="B45" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>673</v>
+      </c>
+      <c r="B46" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>675</v>
+      </c>
+      <c r="B47" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>677</v>
+      </c>
+      <c r="B48" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>679</v>
+      </c>
+      <c r="B49" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>681</v>
+      </c>
+      <c r="B50" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>683</v>
+      </c>
+      <c r="B51" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B52" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>687</v>
+      </c>
+      <c r="B53" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>689</v>
+      </c>
+      <c r="B54" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>691</v>
+      </c>
+      <c r="B55" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>693</v>
+      </c>
+      <c r="B56" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>695</v>
+      </c>
+      <c r="B57" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>697</v>
+      </c>
+      <c r="B58" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>699</v>
+      </c>
+      <c r="B59" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>701</v>
+      </c>
+      <c r="B60" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>703</v>
+      </c>
+      <c r="B61" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>705</v>
+      </c>
+      <c r="B62" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>707</v>
+      </c>
+      <c r="B63" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>709</v>
+      </c>
+      <c r="B64" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>711</v>
+      </c>
+      <c r="B65" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>713</v>
+      </c>
+      <c r="B66" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>715</v>
+      </c>
+      <c r="B67" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>717</v>
+      </c>
+      <c r="B68" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>719</v>
+      </c>
+      <c r="B69" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>721</v>
+      </c>
+      <c r="B70" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>723</v>
+      </c>
+      <c r="B71" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>725</v>
+      </c>
+      <c r="B72" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>727</v>
+      </c>
+      <c r="B73" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>729</v>
+      </c>
+      <c r="B74" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>731</v>
+      </c>
+      <c r="B75" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>733</v>
+      </c>
+      <c r="B76" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>735</v>
+      </c>
+      <c r="B77" t="s">
+        <v>736</v>
       </c>
     </row>
   </sheetData>

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miroc\FlashCards\Flash_Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44CE915-2091-4725-945C-08B6F26CAA65}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CCC846-ED0D-4010-9FFB-CFC7972EC4D9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="615" windowWidth="14385" windowHeight="11985" activeTab="3" xr2:uid="{77373029-EA19-3040-86B1-92EFA1594428}"/>
+    <workbookView xWindow="12765" yWindow="2475" windowWidth="14385" windowHeight="11985" activeTab="3" xr2:uid="{77373029-EA19-3040-86B1-92EFA1594428}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="478">
   <si>
     <t>underlay</t>
     <phoneticPr fontId="1"/>
@@ -2431,129 +2431,6 @@
     <rPh sb="3" eb="4">
       <t>チ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>temporary</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>臨時の、仮の</t>
-    <rPh sb="0" eb="2">
-      <t>リンジ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>stroke</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>打つこと、[心臓の]鼓動、脳卒中</t>
-    <rPh sb="0" eb="1">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シンゾウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コドウ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ノウソッチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>戦術</t>
-    <rPh sb="0" eb="2">
-      <t>センジュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>disturb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>邪魔をする、妨げる</t>
-    <rPh sb="0" eb="2">
-      <t>ジャマ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>サマタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>incidental</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>付随的な、偶発的な</t>
-    <rPh sb="0" eb="3">
-      <t>フズイテキ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>グウハツテキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eternal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>永遠の</t>
-    <rPh sb="0" eb="2">
-      <t>エイエン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nearly</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ほとんど</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>profession</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[専門的]職業</t>
-    <rPh sb="1" eb="4">
-      <t>センモンテキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショクギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>disorder</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>混乱、無秩序、病気</t>
-    <rPh sb="0" eb="2">
-      <t>コンラン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ムチツジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ビョウキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tactic</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4579,7 +4456,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="A1:B9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -4884,10 +4761,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091618A3-A297-4EFA-8E3F-3A2797E2E2AB}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -4924,78 +4801,6 @@
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>478</v>
-      </c>
-      <c r="B5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>480</v>
-      </c>
-      <c r="B6" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>495</v>
-      </c>
-      <c r="B7" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>493</v>
-      </c>
-      <c r="B8" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>483</v>
-      </c>
-      <c r="B9" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>485</v>
-      </c>
-      <c r="B10" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>487</v>
-      </c>
-      <c r="B11" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>489</v>
-      </c>
-      <c r="B12" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>491</v>
-      </c>
-      <c r="B13" t="s">
-        <v>492</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/book.xlsx
+++ b/book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/home2/1693120s/Desktop/Flash_Cards/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yutaka\Desktop\Flash_Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F170753C-0A9C-A546-A277-F7665254C9D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D97169-1582-4B9B-8D46-201742539D81}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{77373029-EA19-3040-86B1-92EFA1594428}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{77373029-EA19-3040-86B1-92EFA1594428}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3782,7 +3782,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4141,18 +4141,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC3BDC6-33F4-1F49-9243-E5204AD50FCE}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A95" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>466</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>193</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>194</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>99</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>101</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>105</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>107</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>109</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>111</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>113</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>115</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>117</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>121</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>123</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>125</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>127</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>195</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>130</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>132</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>134</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>136</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>138</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>140</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>142</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>144</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>146</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>148</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>150</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>152</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>154</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>156</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>196</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>159</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>161</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>163</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>197</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>166</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>168</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>170</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>172</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>174</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>176</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>178</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>180</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>182</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>184</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>186</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>188</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>198</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>191</v>
       </c>
@@ -4971,17 +4971,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE76FA6-050A-5945-8A1C-B9FDBD8EDEEC}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>466</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>202</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>206</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>210</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>212</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>214</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>218</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>220</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>222</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>224</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>226</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>228</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>232</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>234</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>236</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>238</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>240</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>242</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>244</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>246</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>248</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>250</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>252</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>254</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>256</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>258</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>260</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>262</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>264</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>266</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>268</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>270</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>272</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>274</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>276</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>278</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>280</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>282</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>284</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>286</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>288</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>290</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>292</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>294</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>296</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>298</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>300</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>302</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>304</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>306</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>308</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>310</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>312</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>314</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>316</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>318</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>320</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>322</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>324</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>326</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>328</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>330</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>332</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>334</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>336</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>338</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>340</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>342</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>344</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>346</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>348</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>350</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>352</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>354</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>356</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>358</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>360</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>362</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>364</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>365</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>368</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>370</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>372</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>374</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>376</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>378</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>380</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>382</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>384</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>386</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>388</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>390</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>392</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>394</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>396</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>398</v>
       </c>
@@ -5799,17 +5799,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0FF6CE-CF89-FA4A-9E3E-D08E57CF364B}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>466</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>400</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>402</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>404</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>406</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>737</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>409</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>411</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>413</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>415</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>417</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>419</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>421</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>423</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>425</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>427</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>429</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>431</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>433</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>738</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>436</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>438</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>440</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>442</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>444</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>446</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>448</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>450</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>452</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>454</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>456</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>739</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>459</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>461</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>740</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>464</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>468</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>470</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>472</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>474</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>476</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>478</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>480</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>482</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>484</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>486</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>741</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>489</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>491</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>493</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>496</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>498</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>495</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>501</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>503</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>505</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>507</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>742</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>743</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>511</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>513</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>515</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>517</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>744</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>520</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>522</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>524</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>526</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>528</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>530</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>532</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>534</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>536</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>538</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>540</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>542</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>544</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>546</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>548</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>550</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>552</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>554</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>556</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>558</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>560</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>562</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>564</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>566</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>568</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>570</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>572</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>574</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>576</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>578</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>580</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>582</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>584</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>586</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>588</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>745</v>
       </c>
@@ -6619,17 +6619,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091618A3-A297-4EFA-8E3F-3A2797E2E2AB}">
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A125" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>466</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>591</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>593</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>595</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>597</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>599</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>601</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>603</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>605</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>607</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>609</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>611</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>613</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>615</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>617</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>619</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>621</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>623</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>625</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>627</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>746</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>625</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>747</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>748</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>633</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>635</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>637</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>639</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>641</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>643</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>645</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>647</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>649</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>651</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>653</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>655</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>749</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>658</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>750</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>661</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>663</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>665</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>667</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>669</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>671</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>673</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>675</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>677</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>679</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>681</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>683</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>685</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>687</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>689</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>691</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>693</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>695</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>697</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>699</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>701</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>703</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>705</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>707</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>709</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>711</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>713</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>715</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>717</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>719</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>721</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>723</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>725</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>727</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>729</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>731</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>733</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>735</v>
       </c>

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/home2/1693120s/Desktop/Flash_Cards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F170753C-0A9C-A546-A277-F7665254C9D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF75C78-5E21-4C45-ABBB-B43663A0D742}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{77373029-EA19-3040-86B1-92EFA1594428}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" activeTab="2" xr2:uid="{77373029-EA19-3040-86B1-92EFA1594428}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5799,7 +5799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0FF6CE-CF89-FA4A-9E3E-D08E57CF364B}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" workbookViewId="0">
       <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
@@ -6619,7 +6619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091618A3-A297-4EFA-8E3F-3A2797E2E2AB}">
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/home2/1693120s/Desktop/Flash_Cards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF75C78-5E21-4C45-ABBB-B43663A0D742}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3670290-8364-CC4A-897E-9EDDED411B2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" activeTab="2" xr2:uid="{77373029-EA19-3040-86B1-92EFA1594428}"/>
+    <workbookView xWindow="18580" yWindow="460" windowWidth="38400" windowHeight="19540" xr2:uid="{77373029-EA19-3040-86B1-92EFA1594428}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,14 +213,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>streamlined</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>流線型の</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>propel</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -366,10 +358,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>firsthand</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>直接に</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -469,10 +457,6 @@
   </si>
   <si>
     <t>prompt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>artifact</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3776,6 +3760,22 @@
   </si>
   <si>
     <t>terrestrial</t>
+  </si>
+  <si>
+    <t>first-hand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>artefact</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>streamline</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流線型にする</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4141,8 +4141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC3BDC6-33F4-1F49-9243-E5204AD50FCE}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
@@ -4154,10 +4154,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4213,7 +4213,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4258,7 +4258,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -4322,7 +4322,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B22" t="s">
         <v>38</v>
@@ -4330,634 +4330,634 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>749</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>750</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>747</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>748</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B63" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B64" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B67" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B68" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B69" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B70" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B71" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B72" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B73" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B74" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B75" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B76" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B77" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B78" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B79" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B80" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B81" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B82" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B83" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B84" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B86" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B87" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B88" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B89" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B90" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B91" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B92" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B93" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B94" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B95" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B96" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B97" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B98" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B99" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B100" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B101" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4983,810 +4983,810 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B11" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B15" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B16" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B17" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B18" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B19" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B29" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B31" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B32" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B33" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B34" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B35" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B36" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B37" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B38" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B39" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B40" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B41" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B42" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B43" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B44" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B45" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B46" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B47" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B48" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B49" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B50" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B51" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B52" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B53" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B54" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B55" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B56" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B57" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B58" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B59" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B60" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B61" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B62" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B63" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B64" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B65" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B66" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B67" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B68" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B69" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B70" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B71" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B72" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B73" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B74" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B75" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B76" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B77" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B78" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B79" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B80" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B81" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B82" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B83" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B84" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B85" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B86" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B87" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B88" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B89" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B90" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B91" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B92" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B93" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B94" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B95" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B96" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B97" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B98" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B99" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B100" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B101" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -5799,7 +5799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0FF6CE-CF89-FA4A-9E3E-D08E57CF364B}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
@@ -5811,802 +5811,802 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B6" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B8" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B9" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B11" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B12" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B13" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B14" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B15" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B16" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B17" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B18" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B19" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B20" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B21" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B22" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B23" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B24" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B25" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B26" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B27" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B28" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B29" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B30" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B31" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B32" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B33" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B34" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B35" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B36" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B37" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B38" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B40" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B41" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B42" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B43" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B44" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B45" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B46" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B47" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B48" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B49" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B50" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B51" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B52" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B53" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B54" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B55" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B56" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B57" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B58" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B59" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B60" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B61" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B62" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B63" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B64" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B65" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B66" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B67" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B68" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B69" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B70" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B71" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B72" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B73" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B74" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B75" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B76" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B77" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B78" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B79" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B80" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B81" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B82" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B83" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B84" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B85" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B86" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B87" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B88" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B89" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B90" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B91" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B92" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B93" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B94" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B95" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B96" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B97" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B98" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B99" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B100" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -6631,618 +6631,618 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B4" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B5" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B6" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B8" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B9" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B10" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B11" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B12" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B13" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B14" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B15" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B16" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B17" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B18" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B19" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B20" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B21" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B22" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B23" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B24" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B25" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B26" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B27" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B28" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B29" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B30" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B31" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B32" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B33" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B34" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B35" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B36" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B37" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B38" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B39" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B40" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B41" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B42" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B43" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B44" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B45" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B46" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B47" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B48" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B49" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B50" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B51" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B52" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B53" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B54" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B55" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B56" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B57" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B58" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B59" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B60" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B61" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B62" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B63" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B64" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B65" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B66" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B67" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B68" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B69" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B70" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B71" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B72" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B73" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B74" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B75" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B76" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B77" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
   </sheetData>

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/home2/1693120s/Desktop/Flash_Cards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3670290-8364-CC4A-897E-9EDDED411B2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BD8699-902F-DB49-81E3-2BD1CF98907C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18580" yWindow="460" windowWidth="38400" windowHeight="19540" xr2:uid="{77373029-EA19-3040-86B1-92EFA1594428}"/>
+    <workbookView xWindow="21000" yWindow="660" windowWidth="22640" windowHeight="19540" activeTab="3" xr2:uid="{77373029-EA19-3040-86B1-92EFA1594428}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1081,10 +1081,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>runoff</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>流出する水</t>
     <rPh sb="0" eb="1">
       <t>リュウシュツスルミズ</t>
@@ -1696,10 +1692,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>meager</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>不十分な、痩せ衰えた</t>
     <rPh sb="0" eb="1">
       <t>フジュウブンナ</t>
@@ -1967,10 +1959,6 @@
     <rPh sb="0" eb="1">
       <t>、</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mrefute</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2998,10 +2986,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>paleontologist</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>古生物学者</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3109,10 +3093,6 @@
     <rPh sb="0" eb="3">
       <t>、</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Paleolithic</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3735,9 +3715,6 @@
     <t>airborne</t>
   </si>
   <si>
-    <t>Spreadhead</t>
-  </si>
-  <si>
     <t>secrete</t>
   </si>
   <si>
@@ -3775,6 +3752,30 @@
   </si>
   <si>
     <t>流線型にする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>run-off</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meagre</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>refute</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spearhead</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>palaeontologist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>palaeolithic</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4141,7 +4142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC3BDC6-33F4-1F49-9243-E5204AD50FCE}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -4154,10 +4155,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4330,10 +4331,10 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="B23" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4450,7 +4451,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="B38" t="s">
         <v>67</v>
@@ -4538,7 +4539,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="B49" t="s">
         <v>88</v>
@@ -4971,8 +4972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE76FA6-050A-5945-8A1C-B9FDBD8EDEEC}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
@@ -4983,10 +4984,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5063,730 +5064,730 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>745</v>
+      </c>
+      <c r="B11" t="s">
         <v>214</v>
-      </c>
-      <c r="B11" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" t="s">
         <v>216</v>
-      </c>
-      <c r="B12" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" t="s">
         <v>218</v>
-      </c>
-      <c r="B13" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" t="s">
         <v>220</v>
-      </c>
-      <c r="B14" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" t="s">
         <v>222</v>
-      </c>
-      <c r="B15" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" t="s">
         <v>224</v>
-      </c>
-      <c r="B16" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B17" t="s">
         <v>226</v>
-      </c>
-      <c r="B17" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" t="s">
         <v>228</v>
-      </c>
-      <c r="B18" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" t="s">
         <v>230</v>
-      </c>
-      <c r="B19" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20" t="s">
         <v>232</v>
-      </c>
-      <c r="B20" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" t="s">
         <v>234</v>
-      </c>
-      <c r="B21" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" t="s">
         <v>236</v>
-      </c>
-      <c r="B22" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23" t="s">
         <v>238</v>
-      </c>
-      <c r="B23" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B24" t="s">
         <v>240</v>
-      </c>
-      <c r="B24" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>241</v>
+      </c>
+      <c r="B25" t="s">
         <v>242</v>
-      </c>
-      <c r="B25" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>243</v>
+      </c>
+      <c r="B26" t="s">
         <v>244</v>
-      </c>
-      <c r="B26" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>245</v>
+      </c>
+      <c r="B27" t="s">
         <v>246</v>
-      </c>
-      <c r="B27" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" t="s">
         <v>248</v>
-      </c>
-      <c r="B28" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" t="s">
         <v>250</v>
-      </c>
-      <c r="B29" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30" t="s">
         <v>252</v>
-      </c>
-      <c r="B30" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>253</v>
+      </c>
+      <c r="B31" t="s">
         <v>254</v>
-      </c>
-      <c r="B31" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
+        <v>255</v>
+      </c>
+      <c r="B32" t="s">
         <v>256</v>
-      </c>
-      <c r="B32" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>257</v>
+      </c>
+      <c r="B33" t="s">
         <v>258</v>
-      </c>
-      <c r="B33" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>259</v>
+      </c>
+      <c r="B34" t="s">
         <v>260</v>
-      </c>
-      <c r="B34" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>261</v>
+      </c>
+      <c r="B35" t="s">
         <v>262</v>
-      </c>
-      <c r="B35" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>263</v>
+      </c>
+      <c r="B36" t="s">
         <v>264</v>
-      </c>
-      <c r="B36" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>265</v>
+      </c>
+      <c r="B37" t="s">
         <v>266</v>
-      </c>
-      <c r="B37" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>267</v>
+      </c>
+      <c r="B38" t="s">
         <v>268</v>
-      </c>
-      <c r="B38" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>269</v>
+      </c>
+      <c r="B39" t="s">
         <v>270</v>
-      </c>
-      <c r="B39" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>271</v>
+      </c>
+      <c r="B40" t="s">
         <v>272</v>
-      </c>
-      <c r="B40" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
+        <v>273</v>
+      </c>
+      <c r="B41" t="s">
         <v>274</v>
-      </c>
-      <c r="B41" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
+        <v>275</v>
+      </c>
+      <c r="B42" t="s">
         <v>276</v>
-      </c>
-      <c r="B42" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
+        <v>277</v>
+      </c>
+      <c r="B43" t="s">
         <v>278</v>
-      </c>
-      <c r="B43" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
+        <v>279</v>
+      </c>
+      <c r="B44" t="s">
         <v>280</v>
-      </c>
-      <c r="B44" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
+        <v>281</v>
+      </c>
+      <c r="B45" t="s">
         <v>282</v>
-      </c>
-      <c r="B45" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
+        <v>283</v>
+      </c>
+      <c r="B46" t="s">
         <v>284</v>
-      </c>
-      <c r="B46" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
+        <v>285</v>
+      </c>
+      <c r="B47" t="s">
         <v>286</v>
-      </c>
-      <c r="B47" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
+        <v>287</v>
+      </c>
+      <c r="B48" t="s">
         <v>288</v>
-      </c>
-      <c r="B48" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
+        <v>289</v>
+      </c>
+      <c r="B49" t="s">
         <v>290</v>
-      </c>
-      <c r="B49" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
+        <v>291</v>
+      </c>
+      <c r="B50" t="s">
         <v>292</v>
-      </c>
-      <c r="B50" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
+        <v>293</v>
+      </c>
+      <c r="B51" t="s">
         <v>294</v>
-      </c>
-      <c r="B51" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
+        <v>295</v>
+      </c>
+      <c r="B52" t="s">
         <v>296</v>
-      </c>
-      <c r="B52" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
+        <v>297</v>
+      </c>
+      <c r="B53" t="s">
         <v>298</v>
-      </c>
-      <c r="B53" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
+        <v>299</v>
+      </c>
+      <c r="B54" t="s">
         <v>300</v>
-      </c>
-      <c r="B54" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
+        <v>301</v>
+      </c>
+      <c r="B55" t="s">
         <v>302</v>
-      </c>
-      <c r="B55" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
+        <v>303</v>
+      </c>
+      <c r="B56" t="s">
         <v>304</v>
-      </c>
-      <c r="B56" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
+        <v>305</v>
+      </c>
+      <c r="B57" t="s">
         <v>306</v>
-      </c>
-      <c r="B57" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
+        <v>307</v>
+      </c>
+      <c r="B58" t="s">
         <v>308</v>
-      </c>
-      <c r="B58" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
+        <v>309</v>
+      </c>
+      <c r="B59" t="s">
         <v>310</v>
-      </c>
-      <c r="B59" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
+        <v>311</v>
+      </c>
+      <c r="B60" t="s">
         <v>312</v>
-      </c>
-      <c r="B60" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
+        <v>313</v>
+      </c>
+      <c r="B61" t="s">
         <v>314</v>
-      </c>
-      <c r="B61" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
+        <v>315</v>
+      </c>
+      <c r="B62" t="s">
         <v>316</v>
-      </c>
-      <c r="B62" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
+        <v>317</v>
+      </c>
+      <c r="B63" t="s">
         <v>318</v>
-      </c>
-      <c r="B63" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
+        <v>319</v>
+      </c>
+      <c r="B64" t="s">
         <v>320</v>
-      </c>
-      <c r="B64" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
+        <v>321</v>
+      </c>
+      <c r="B65" t="s">
         <v>322</v>
-      </c>
-      <c r="B65" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
+        <v>323</v>
+      </c>
+      <c r="B66" t="s">
         <v>324</v>
-      </c>
-      <c r="B66" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
+        <v>325</v>
+      </c>
+      <c r="B67" t="s">
         <v>326</v>
-      </c>
-      <c r="B67" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
+        <v>327</v>
+      </c>
+      <c r="B68" t="s">
         <v>328</v>
-      </c>
-      <c r="B68" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
+        <v>329</v>
+      </c>
+      <c r="B69" t="s">
         <v>330</v>
-      </c>
-      <c r="B69" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
+        <v>331</v>
+      </c>
+      <c r="B70" t="s">
         <v>332</v>
-      </c>
-      <c r="B70" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>334</v>
+        <v>746</v>
       </c>
       <c r="B71" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B72" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B73" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B74" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B75" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B76" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B77" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B78" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B79" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B80" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B81" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B82" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B83" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
+        <v>358</v>
+      </c>
+      <c r="B84" t="s">
         <v>360</v>
-      </c>
-      <c r="B84" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
+        <v>359</v>
+      </c>
+      <c r="B85" t="s">
         <v>361</v>
-      </c>
-      <c r="B85" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B86" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B87" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B88" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B90" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B91" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B92" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B93" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B94" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B95" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B96" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>386</v>
+        <v>747</v>
       </c>
       <c r="B97" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B98" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B99" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B100" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B101" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -5799,8 +5800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0FF6CE-CF89-FA4A-9E3E-D08E57CF364B}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView showGridLines="0" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
@@ -5811,802 +5812,802 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B9" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B10" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B11" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B12" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B13" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B14" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B15" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B16" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B17" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B18" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B19" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B20" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B21" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B22" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B23" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B24" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B25" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B26" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B27" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B28" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B29" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B30" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B31" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B32" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B33" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B34" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B35" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B36" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B37" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B38" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B39" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B40" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B41" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B42" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B43" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B44" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B45" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B46" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B47" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B48" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B50" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B51" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B52" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B53" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B54" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B55" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B56" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B57" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="B58" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="B59" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B60" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B61" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B62" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B63" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B64" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B65" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B66" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B67" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B68" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B69" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B70" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B71" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B72" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B73" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B74" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B75" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B76" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B77" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B78" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B79" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B80" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B81" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B82" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B83" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B84" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B85" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B86" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B87" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B88" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B89" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B90" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B91" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B92" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B93" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B94" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B95" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B96" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B97" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B98" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B99" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="B100" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -6619,8 +6620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091618A3-A297-4EFA-8E3F-3A2797E2E2AB}">
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
@@ -6631,618 +6632,618 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>587</v>
+        <v>749</v>
       </c>
       <c r="B2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B4" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B5" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B6" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B8" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B9" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B10" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B11" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B12" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B13" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>611</v>
+        <v>750</v>
       </c>
       <c r="B14" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B15" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B16" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B17" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B18" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B19" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B20" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="B21" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>616</v>
+      </c>
+      <c r="B22" t="s">
         <v>621</v>
-      </c>
-      <c r="B22" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B23" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="B24" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B25" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B26" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B27" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B28" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B29" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B30" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B31" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B32" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B33" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B34" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B35" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B36" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="B37" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B38" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="B39" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B40" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B41" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B42" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B43" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B44" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B45" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B46" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B47" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B48" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B49" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B50" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B51" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B52" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B53" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B54" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B55" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B56" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B57" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B58" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B59" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B60" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B61" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B62" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B63" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B64" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B65" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B66" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B67" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B68" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B69" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B70" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B71" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B72" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B73" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B74" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B75" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B76" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B77" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
   </sheetData>
